--- a/Historical data/SW_SOLAR.xlsx
+++ b/Historical data/SW_SOLAR.xlsx
@@ -934,7 +934,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:S83"/>
+  <dimension ref="A1:AL83"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1015,7 +1015,7 @@
       </c>
       <c r="O1" t="inlineStr">
         <is>
-          <t>OPEN-CLOSE</t>
+          <t>CLOSE-OPEN</t>
         </is>
       </c>
       <c r="P1" t="inlineStr">
@@ -1030,7 +1030,7 @@
       </c>
       <c r="R1" t="inlineStr">
         <is>
-          <t>CLOSE-CLOSE</t>
+          <t>TCLOSE-PCLOSE</t>
         </is>
       </c>
       <c r="S1" t="inlineStr">
@@ -1084,8 +1084,8 @@
       <c r="N2" s="2" t="n">
         <v>2773</v>
       </c>
-      <c r="O2" t="n">
-        <v>2.049999999999955</v>
+      <c r="O2" s="5" t="n">
+        <v>-2.049999999999955</v>
       </c>
       <c r="P2" t="n">
         <v>2.5</v>
@@ -1099,6 +1099,7 @@
       <c r="S2" t="n">
         <v>6</v>
       </c>
+      <c r="T2" s="5" t="n"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -1145,8 +1146,8 @@
       <c r="N3" s="2" t="n">
         <v>15865</v>
       </c>
-      <c r="O3" t="n">
-        <v>12</v>
+      <c r="O3" s="5" t="n">
+        <v>-12</v>
       </c>
       <c r="P3" t="n">
         <v>2.200000000000045</v>
@@ -1160,6 +1161,11 @@
       <c r="S3" t="n">
         <v>17.25</v>
       </c>
+      <c r="T3" s="5" t="n"/>
+      <c r="W3" s="4" t="n"/>
+      <c r="AB3" s="4" t="n"/>
+      <c r="AG3" s="4" t="n"/>
+      <c r="AL3" s="4" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -1206,8 +1212,8 @@
       <c r="N4" s="2" t="n">
         <v>25853</v>
       </c>
-      <c r="O4" s="5" t="n">
-        <v>-27.25</v>
+      <c r="O4" t="n">
+        <v>27.25</v>
       </c>
       <c r="P4" t="n">
         <v>28.35000000000002</v>
@@ -1221,6 +1227,9 @@
       <c r="S4" t="n">
         <v>43.64999999999998</v>
       </c>
+      <c r="Y4" s="5" t="n"/>
+      <c r="AD4" s="5" t="n"/>
+      <c r="AI4" s="5" t="n"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -1267,8 +1276,8 @@
       <c r="N5" s="2" t="n">
         <v>27095</v>
       </c>
-      <c r="O5" t="n">
-        <v>20.30000000000007</v>
+      <c r="O5" s="5" t="n">
+        <v>-20.30000000000007</v>
       </c>
       <c r="P5" t="n">
         <v>2.049999999999955</v>
@@ -1282,6 +1291,11 @@
       <c r="S5" t="n">
         <v>30.29999999999995</v>
       </c>
+      <c r="T5" s="5" t="n"/>
+      <c r="W5" s="4" t="n"/>
+      <c r="AB5" s="4" t="n"/>
+      <c r="AG5" s="4" t="n"/>
+      <c r="AL5" s="4" t="n"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -1328,8 +1342,8 @@
       <c r="N6" s="2" t="n">
         <v>21876</v>
       </c>
-      <c r="O6" s="5" t="n">
-        <v>-7</v>
+      <c r="O6" t="n">
+        <v>7</v>
       </c>
       <c r="P6" t="n">
         <v>25.04999999999995</v>
@@ -1343,6 +1357,9 @@
       <c r="S6" t="n">
         <v>25.10000000000002</v>
       </c>
+      <c r="Y6" s="5" t="n"/>
+      <c r="AD6" s="5" t="n"/>
+      <c r="AI6" s="5" t="n"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -1389,8 +1406,8 @@
       <c r="N7" s="2" t="n">
         <v>18894</v>
       </c>
-      <c r="O7" t="n">
-        <v>19.85000000000002</v>
+      <c r="O7" s="5" t="n">
+        <v>-19.85000000000002</v>
       </c>
       <c r="P7" t="n">
         <v>2.899999999999977</v>
@@ -1404,6 +1421,11 @@
       <c r="S7" t="n">
         <v>24.95000000000005</v>
       </c>
+      <c r="T7" s="5" t="n"/>
+      <c r="W7" s="4" t="n"/>
+      <c r="AB7" s="4" t="n"/>
+      <c r="AG7" s="4" t="n"/>
+      <c r="AL7" s="4" t="n"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -1450,8 +1472,8 @@
       <c r="N8" s="2" t="n">
         <v>28830</v>
       </c>
-      <c r="O8" s="5" t="n">
-        <v>-1.75</v>
+      <c r="O8" t="n">
+        <v>1.75</v>
       </c>
       <c r="P8" t="n">
         <v>6.100000000000023</v>
@@ -1465,6 +1487,9 @@
       <c r="S8" t="n">
         <v>16.5</v>
       </c>
+      <c r="Y8" s="5" t="n"/>
+      <c r="AD8" s="5" t="n"/>
+      <c r="AI8" s="5" t="n"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -1511,8 +1536,8 @@
       <c r="N9" s="2" t="n">
         <v>34774</v>
       </c>
-      <c r="O9" s="5" t="n">
-        <v>-14.39999999999998</v>
+      <c r="O9" t="n">
+        <v>14.39999999999998</v>
       </c>
       <c r="P9" t="n">
         <v>21</v>
@@ -1526,6 +1551,9 @@
       <c r="S9" t="n">
         <v>39</v>
       </c>
+      <c r="Y9" s="5" t="n"/>
+      <c r="AD9" s="5" t="n"/>
+      <c r="AI9" s="5" t="n"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -1572,8 +1600,8 @@
       <c r="N10" s="2" t="n">
         <v>29665</v>
       </c>
-      <c r="O10" t="n">
-        <v>34.35000000000002</v>
+      <c r="O10" s="5" t="n">
+        <v>-34.35000000000002</v>
       </c>
       <c r="P10" t="n">
         <v>0.5</v>
@@ -1587,6 +1615,11 @@
       <c r="S10" t="n">
         <v>38.39999999999998</v>
       </c>
+      <c r="T10" s="5" t="n"/>
+      <c r="W10" s="4" t="n"/>
+      <c r="AB10" s="4" t="n"/>
+      <c r="AG10" s="4" t="n"/>
+      <c r="AL10" s="4" t="n"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -1633,8 +1666,8 @@
       <c r="N11" s="2" t="n">
         <v>21215</v>
       </c>
-      <c r="O11" t="n">
-        <v>12.65000000000009</v>
+      <c r="O11" s="5" t="n">
+        <v>-12.65000000000009</v>
       </c>
       <c r="P11" t="n">
         <v>4.849999999999909</v>
@@ -1648,6 +1681,11 @@
       <c r="S11" t="n">
         <v>24.25</v>
       </c>
+      <c r="T11" s="5" t="n"/>
+      <c r="W11" s="4" t="n"/>
+      <c r="AB11" s="4" t="n"/>
+      <c r="AG11" s="4" t="n"/>
+      <c r="AL11" s="4" t="n"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -1694,8 +1732,8 @@
       <c r="N12" s="2" t="n">
         <v>26545</v>
       </c>
-      <c r="O12" s="5" t="n">
-        <v>-6.25</v>
+      <c r="O12" t="n">
+        <v>6.25</v>
       </c>
       <c r="P12" t="n">
         <v>17.84999999999991</v>
@@ -1709,6 +1747,9 @@
       <c r="S12" t="n">
         <v>21.25</v>
       </c>
+      <c r="Y12" s="5" t="n"/>
+      <c r="AD12" s="5" t="n"/>
+      <c r="AI12" s="5" t="n"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -1755,8 +1796,8 @@
       <c r="N13" s="2" t="n">
         <v>19408</v>
       </c>
-      <c r="O13" t="n">
-        <v>1.450000000000045</v>
+      <c r="O13" s="5" t="n">
+        <v>-1.450000000000045</v>
       </c>
       <c r="P13" t="n">
         <v>4.799999999999955</v>
@@ -1770,6 +1811,7 @@
       <c r="S13" t="n">
         <v>12.29999999999995</v>
       </c>
+      <c r="T13" s="5" t="n"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -1816,8 +1858,8 @@
       <c r="N14" s="2" t="n">
         <v>27597</v>
       </c>
-      <c r="O14" t="n">
-        <v>8.699999999999932</v>
+      <c r="O14" s="5" t="n">
+        <v>-8.699999999999932</v>
       </c>
       <c r="P14" t="n">
         <v>4.600000000000023</v>
@@ -1831,6 +1873,11 @@
       <c r="S14" t="n">
         <v>19.89999999999998</v>
       </c>
+      <c r="T14" s="5" t="n"/>
+      <c r="W14" s="4" t="n"/>
+      <c r="AB14" s="4" t="n"/>
+      <c r="AG14" s="4" t="n"/>
+      <c r="AL14" s="4" t="n"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -1877,8 +1924,8 @@
       <c r="N15" s="2" t="n">
         <v>42845</v>
       </c>
-      <c r="O15" s="5" t="n">
-        <v>-30.35000000000002</v>
+      <c r="O15" t="n">
+        <v>30.35000000000002</v>
       </c>
       <c r="P15" t="n">
         <v>31.5</v>
@@ -1892,6 +1939,9 @@
       <c r="S15" t="n">
         <v>43.5</v>
       </c>
+      <c r="Y15" s="5" t="n"/>
+      <c r="AD15" s="5" t="n"/>
+      <c r="AI15" s="5" t="n"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -1938,8 +1988,8 @@
       <c r="N16" s="2" t="n">
         <v>27960</v>
       </c>
-      <c r="O16" s="5" t="n">
-        <v>-0.75</v>
+      <c r="O16" t="n">
+        <v>0.75</v>
       </c>
       <c r="P16" t="n">
         <v>14.89999999999998</v>
@@ -1953,6 +2003,13 @@
       <c r="S16" t="n">
         <v>15</v>
       </c>
+      <c r="W16" s="4" t="n"/>
+      <c r="Y16" s="5" t="n"/>
+      <c r="AB16" s="4" t="n"/>
+      <c r="AD16" s="5" t="n"/>
+      <c r="AG16" s="4" t="n"/>
+      <c r="AI16" s="5" t="n"/>
+      <c r="AL16" s="4" t="n"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -1999,8 +2056,8 @@
       <c r="N17" s="2" t="n">
         <v>27894</v>
       </c>
-      <c r="O17" t="n">
-        <v>37.94999999999993</v>
+      <c r="O17" s="5" t="n">
+        <v>-37.94999999999993</v>
       </c>
       <c r="P17" t="n">
         <v>4.400000000000091</v>
@@ -2014,6 +2071,11 @@
       <c r="S17" t="n">
         <v>42.35000000000002</v>
       </c>
+      <c r="T17" s="5" t="n"/>
+      <c r="W17" s="4" t="n"/>
+      <c r="AB17" s="4" t="n"/>
+      <c r="AG17" s="4" t="n"/>
+      <c r="AL17" s="4" t="n"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -2060,8 +2122,8 @@
       <c r="N18" s="2" t="n">
         <v>31464</v>
       </c>
-      <c r="O18" t="n">
-        <v>24.94999999999993</v>
+      <c r="O18" s="5" t="n">
+        <v>-24.94999999999993</v>
       </c>
       <c r="P18" t="n">
         <v>7.200000000000045</v>
@@ -2075,6 +2137,11 @@
       <c r="S18" t="n">
         <v>41.64999999999998</v>
       </c>
+      <c r="T18" s="5" t="n"/>
+      <c r="W18" s="4" t="n"/>
+      <c r="AB18" s="4" t="n"/>
+      <c r="AG18" s="4" t="n"/>
+      <c r="AL18" s="4" t="n"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -2121,8 +2188,8 @@
       <c r="N19" s="2" t="n">
         <v>42922</v>
       </c>
-      <c r="O19" t="n">
-        <v>1.650000000000091</v>
+      <c r="O19" s="5" t="n">
+        <v>-1.650000000000091</v>
       </c>
       <c r="P19" t="n">
         <v>11.69999999999993</v>
@@ -2136,6 +2203,7 @@
       <c r="S19" t="n">
         <v>43.39999999999998</v>
       </c>
+      <c r="T19" s="5" t="n"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -2182,8 +2250,8 @@
       <c r="N20" s="2" t="n">
         <v>23997</v>
       </c>
-      <c r="O20" s="5" t="n">
-        <v>-18.89999999999998</v>
+      <c r="O20" t="n">
+        <v>18.89999999999998</v>
       </c>
       <c r="P20" t="n">
         <v>19.14999999999998</v>
@@ -2197,6 +2265,9 @@
       <c r="S20" t="n">
         <v>29.14999999999998</v>
       </c>
+      <c r="Y20" s="5" t="n"/>
+      <c r="AD20" s="5" t="n"/>
+      <c r="AI20" s="5" t="n"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -2243,8 +2314,8 @@
       <c r="N21" s="2" t="n">
         <v>21198</v>
       </c>
-      <c r="O21" s="5" t="n">
-        <v>-7.850000000000023</v>
+      <c r="O21" t="n">
+        <v>7.850000000000023</v>
       </c>
       <c r="P21" t="n">
         <v>18.79999999999995</v>
@@ -2258,6 +2329,9 @@
       <c r="S21" t="n">
         <v>25.94999999999993</v>
       </c>
+      <c r="Y21" s="5" t="n"/>
+      <c r="AD21" s="5" t="n"/>
+      <c r="AI21" s="5" t="n"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -2304,8 +2378,8 @@
       <c r="N22" s="2" t="n">
         <v>26586</v>
       </c>
-      <c r="O22" t="n">
-        <v>12.95000000000005</v>
+      <c r="O22" s="5" t="n">
+        <v>-12.95000000000005</v>
       </c>
       <c r="P22" t="n">
         <v>4.399999999999977</v>
@@ -2319,6 +2393,7 @@
       <c r="S22" t="n">
         <v>22.29999999999995</v>
       </c>
+      <c r="T22" s="5" t="n"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -2365,8 +2440,8 @@
       <c r="N23" s="2" t="n">
         <v>28861</v>
       </c>
-      <c r="O23" t="n">
-        <v>11.75</v>
+      <c r="O23" s="5" t="n">
+        <v>-11.75</v>
       </c>
       <c r="P23" t="n">
         <v>4.700000000000045</v>
@@ -2380,6 +2455,11 @@
       <c r="S23" t="n">
         <v>30.20000000000005</v>
       </c>
+      <c r="T23" s="5" t="n"/>
+      <c r="W23" s="4" t="n"/>
+      <c r="AB23" s="4" t="n"/>
+      <c r="AG23" s="4" t="n"/>
+      <c r="AL23" s="4" t="n"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -2426,8 +2506,8 @@
       <c r="N24" s="2" t="n">
         <v>31638</v>
       </c>
-      <c r="O24" t="n">
-        <v>11.70000000000005</v>
+      <c r="O24" s="5" t="n">
+        <v>-11.70000000000005</v>
       </c>
       <c r="P24" t="n">
         <v>3.849999999999909</v>
@@ -2441,6 +2521,7 @@
       <c r="S24" t="n">
         <v>22.09999999999991</v>
       </c>
+      <c r="T24" s="5" t="n"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -2487,8 +2568,8 @@
       <c r="N25" s="2" t="n">
         <v>43330</v>
       </c>
-      <c r="O25" t="n">
-        <v>23.34999999999991</v>
+      <c r="O25" s="5" t="n">
+        <v>-23.34999999999991</v>
       </c>
       <c r="P25" t="n">
         <v>6.950000000000045</v>
@@ -2502,6 +2583,11 @@
       <c r="S25" t="n">
         <v>40.25</v>
       </c>
+      <c r="T25" s="5" t="n"/>
+      <c r="W25" s="4" t="n"/>
+      <c r="AB25" s="4" t="n"/>
+      <c r="AG25" s="4" t="n"/>
+      <c r="AL25" s="4" t="n"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -2548,8 +2634,8 @@
       <c r="N26" s="2" t="n">
         <v>66473</v>
       </c>
-      <c r="O26" t="n">
-        <v>41.85000000000002</v>
+      <c r="O26" s="5" t="n">
+        <v>-41.85000000000002</v>
       </c>
       <c r="P26" t="n">
         <v>2.700000000000045</v>
@@ -2563,6 +2649,11 @@
       <c r="S26" t="n">
         <v>50.60000000000002</v>
       </c>
+      <c r="T26" s="5" t="n"/>
+      <c r="W26" s="4" t="n"/>
+      <c r="AB26" s="4" t="n"/>
+      <c r="AG26" s="4" t="n"/>
+      <c r="AL26" s="4" t="n"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -2609,8 +2700,8 @@
       <c r="N27" s="2" t="n">
         <v>9507</v>
       </c>
-      <c r="O27" s="5" t="n">
-        <v>-8.75</v>
+      <c r="O27" t="n">
+        <v>8.75</v>
       </c>
       <c r="P27" t="n">
         <v>8.75</v>
@@ -2624,6 +2715,9 @@
       <c r="S27" t="n">
         <v>11.55000000000007</v>
       </c>
+      <c r="Y27" s="5" t="n"/>
+      <c r="AD27" s="5" t="n"/>
+      <c r="AI27" s="5" t="n"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -2670,8 +2764,8 @@
       <c r="N28" s="2" t="n">
         <v>25990</v>
       </c>
-      <c r="O28" s="5" t="n">
-        <v>-13.60000000000002</v>
+      <c r="O28" t="n">
+        <v>13.60000000000002</v>
       </c>
       <c r="P28" t="n">
         <v>13.60000000000002</v>
@@ -2685,6 +2779,9 @@
       <c r="S28" t="n">
         <v>22.60000000000002</v>
       </c>
+      <c r="Y28" s="5" t="n"/>
+      <c r="AD28" s="5" t="n"/>
+      <c r="AI28" s="5" t="n"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -2731,8 +2828,8 @@
       <c r="N29" s="2" t="n">
         <v>50991</v>
       </c>
-      <c r="O29" s="5" t="n">
-        <v>-10.10000000000002</v>
+      <c r="O29" t="n">
+        <v>10.10000000000002</v>
       </c>
       <c r="P29" t="n">
         <v>10.10000000000002</v>
@@ -2746,6 +2843,9 @@
       <c r="S29" t="n">
         <v>42.90000000000003</v>
       </c>
+      <c r="Y29" s="5" t="n"/>
+      <c r="AD29" s="5" t="n"/>
+      <c r="AI29" s="5" t="n"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -2792,8 +2892,8 @@
       <c r="N30" s="2" t="n">
         <v>43023</v>
       </c>
-      <c r="O30" t="n">
-        <v>5.399999999999977</v>
+      <c r="O30" s="5" t="n">
+        <v>-5.399999999999977</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
@@ -2807,6 +2907,7 @@
       <c r="S30" t="n">
         <v>24.35000000000002</v>
       </c>
+      <c r="T30" s="5" t="n"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -2914,8 +3015,8 @@
       <c r="N32" s="2" t="n">
         <v>13957</v>
       </c>
-      <c r="O32" s="5" t="n">
-        <v>-8.149999999999977</v>
+      <c r="O32" t="n">
+        <v>8.149999999999977</v>
       </c>
       <c r="P32" t="n">
         <v>8.149999999999977</v>
@@ -2929,6 +3030,9 @@
       <c r="S32" t="n">
         <v>12.39999999999998</v>
       </c>
+      <c r="Y32" s="5" t="n"/>
+      <c r="AD32" s="5" t="n"/>
+      <c r="AI32" s="5" t="n"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -2975,8 +3079,8 @@
       <c r="N33" s="2" t="n">
         <v>38818</v>
       </c>
-      <c r="O33" s="5" t="n">
-        <v>-2.300000000000011</v>
+      <c r="O33" t="n">
+        <v>2.300000000000011</v>
       </c>
       <c r="P33" t="n">
         <v>10</v>
@@ -2990,6 +3094,9 @@
       <c r="S33" t="n">
         <v>31.14999999999998</v>
       </c>
+      <c r="Y33" s="5" t="n"/>
+      <c r="AD33" s="5" t="n"/>
+      <c r="AI33" s="5" t="n"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -3036,8 +3143,8 @@
       <c r="N34" s="2" t="n">
         <v>14680</v>
       </c>
-      <c r="O34" t="n">
-        <v>1.25</v>
+      <c r="O34" s="5" t="n">
+        <v>-1.25</v>
       </c>
       <c r="P34" t="n">
         <v>7.850000000000023</v>
@@ -3051,6 +3158,11 @@
       <c r="S34" t="n">
         <v>11.44999999999999</v>
       </c>
+      <c r="T34" s="5" t="n"/>
+      <c r="W34" s="4" t="n"/>
+      <c r="AB34" s="4" t="n"/>
+      <c r="AG34" s="4" t="n"/>
+      <c r="AL34" s="4" t="n"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -3097,8 +3209,8 @@
       <c r="N35" s="2" t="n">
         <v>17509</v>
       </c>
-      <c r="O35" t="n">
-        <v>6.050000000000011</v>
+      <c r="O35" s="5" t="n">
+        <v>-6.050000000000011</v>
       </c>
       <c r="P35" t="n">
         <v>2.199999999999989</v>
@@ -3112,6 +3224,11 @@
       <c r="S35" t="n">
         <v>20.80000000000001</v>
       </c>
+      <c r="T35" s="5" t="n"/>
+      <c r="W35" s="4" t="n"/>
+      <c r="AB35" s="4" t="n"/>
+      <c r="AG35" s="4" t="n"/>
+      <c r="AL35" s="4" t="n"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -3158,8 +3275,8 @@
       <c r="N36" s="2" t="n">
         <v>23634</v>
       </c>
-      <c r="O36" t="n">
-        <v>3.649999999999977</v>
+      <c r="O36" s="5" t="n">
+        <v>-3.649999999999977</v>
       </c>
       <c r="P36" t="n">
         <v>9.550000000000011</v>
@@ -3173,6 +3290,11 @@
       <c r="S36" t="n">
         <v>15.30000000000001</v>
       </c>
+      <c r="T36" s="5" t="n"/>
+      <c r="W36" s="4" t="n"/>
+      <c r="AB36" s="4" t="n"/>
+      <c r="AG36" s="4" t="n"/>
+      <c r="AL36" s="4" t="n"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -3219,8 +3341,8 @@
       <c r="N37" s="2" t="n">
         <v>22967</v>
       </c>
-      <c r="O37" t="n">
-        <v>13.69999999999999</v>
+      <c r="O37" s="5" t="n">
+        <v>-13.69999999999999</v>
       </c>
       <c r="P37" t="n">
         <v>2.800000000000011</v>
@@ -3234,6 +3356,11 @@
       <c r="S37" t="n">
         <v>20</v>
       </c>
+      <c r="T37" s="5" t="n"/>
+      <c r="W37" s="4" t="n"/>
+      <c r="AB37" s="4" t="n"/>
+      <c r="AG37" s="4" t="n"/>
+      <c r="AL37" s="4" t="n"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -3280,8 +3407,8 @@
       <c r="N38" s="2" t="n">
         <v>29820</v>
       </c>
-      <c r="O38" s="5" t="n">
-        <v>-17</v>
+      <c r="O38" t="n">
+        <v>17</v>
       </c>
       <c r="P38" t="n">
         <v>17.75</v>
@@ -3295,6 +3422,9 @@
       <c r="S38" t="n">
         <v>18.05000000000001</v>
       </c>
+      <c r="Y38" s="5" t="n"/>
+      <c r="AD38" s="5" t="n"/>
+      <c r="AI38" s="5" t="n"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -3341,8 +3471,8 @@
       <c r="N39" s="2" t="n">
         <v>34456</v>
       </c>
-      <c r="O39" t="n">
-        <v>1.600000000000023</v>
+      <c r="O39" s="5" t="n">
+        <v>-1.600000000000023</v>
       </c>
       <c r="P39" t="n">
         <v>5</v>
@@ -3356,6 +3486,11 @@
       <c r="S39" t="n">
         <v>18.39999999999998</v>
       </c>
+      <c r="T39" s="5" t="n"/>
+      <c r="W39" s="4" t="n"/>
+      <c r="AB39" s="4" t="n"/>
+      <c r="AG39" s="4" t="n"/>
+      <c r="AL39" s="4" t="n"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -3402,8 +3537,8 @@
       <c r="N40" s="2" t="n">
         <v>15689</v>
       </c>
-      <c r="O40" t="n">
-        <v>0.3000000000000114</v>
+      <c r="O40" s="5" t="n">
+        <v>-0.3000000000000114</v>
       </c>
       <c r="P40" t="n">
         <v>9.050000000000011</v>
@@ -3417,6 +3552,7 @@
       <c r="S40" t="n">
         <v>14</v>
       </c>
+      <c r="T40" s="5" t="n"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -3463,8 +3599,8 @@
       <c r="N41" s="2" t="n">
         <v>18161</v>
       </c>
-      <c r="O41" t="n">
-        <v>4.949999999999989</v>
+      <c r="O41" s="5" t="n">
+        <v>-4.949999999999989</v>
       </c>
       <c r="P41" t="n">
         <v>4.949999999999989</v>
@@ -3478,6 +3614,11 @@
       <c r="S41" t="n">
         <v>12.69999999999999</v>
       </c>
+      <c r="T41" s="5" t="n"/>
+      <c r="W41" s="4" t="n"/>
+      <c r="AB41" s="4" t="n"/>
+      <c r="AG41" s="4" t="n"/>
+      <c r="AL41" s="4" t="n"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -3524,8 +3665,8 @@
       <c r="N42" s="2" t="n">
         <v>13535</v>
       </c>
-      <c r="O42" s="5" t="n">
-        <v>-0.4000000000000341</v>
+      <c r="O42" t="n">
+        <v>0.4000000000000341</v>
       </c>
       <c r="P42" t="n">
         <v>2.300000000000011</v>
@@ -3539,6 +3680,9 @@
       <c r="S42" t="n">
         <v>7</v>
       </c>
+      <c r="Y42" s="5" t="n"/>
+      <c r="AD42" s="5" t="n"/>
+      <c r="AI42" s="5" t="n"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -3585,8 +3729,8 @@
       <c r="N43" s="2" t="n">
         <v>16870</v>
       </c>
-      <c r="O43" t="n">
-        <v>6.800000000000011</v>
+      <c r="O43" s="5" t="n">
+        <v>-6.800000000000011</v>
       </c>
       <c r="P43" t="n">
         <v>3.800000000000011</v>
@@ -3600,6 +3744,11 @@
       <c r="S43" t="n">
         <v>14.55000000000001</v>
       </c>
+      <c r="T43" s="5" t="n"/>
+      <c r="W43" s="4" t="n"/>
+      <c r="AB43" s="4" t="n"/>
+      <c r="AG43" s="4" t="n"/>
+      <c r="AL43" s="4" t="n"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -3646,8 +3795,8 @@
       <c r="N44" s="2" t="n">
         <v>35469</v>
       </c>
-      <c r="O44" s="5" t="n">
-        <v>-3.650000000000034</v>
+      <c r="O44" t="n">
+        <v>3.650000000000034</v>
       </c>
       <c r="P44" t="n">
         <v>15.85000000000002</v>
@@ -3661,6 +3810,9 @@
       <c r="S44" t="n">
         <v>15.85000000000002</v>
       </c>
+      <c r="Y44" s="5" t="n"/>
+      <c r="AD44" s="5" t="n"/>
+      <c r="AI44" s="5" t="n"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -3707,8 +3859,8 @@
       <c r="N45" s="2" t="n">
         <v>22069</v>
       </c>
-      <c r="O45" t="n">
-        <v>7.200000000000045</v>
+      <c r="O45" s="5" t="n">
+        <v>-7.200000000000045</v>
       </c>
       <c r="P45" t="n">
         <v>2.899999999999977</v>
@@ -3722,6 +3874,11 @@
       <c r="S45" t="n">
         <v>18</v>
       </c>
+      <c r="T45" s="5" t="n"/>
+      <c r="W45" s="4" t="n"/>
+      <c r="AB45" s="4" t="n"/>
+      <c r="AG45" s="4" t="n"/>
+      <c r="AL45" s="4" t="n"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -3768,8 +3925,8 @@
       <c r="N46" s="2" t="n">
         <v>20966</v>
       </c>
-      <c r="O46" s="5" t="n">
-        <v>-6.5</v>
+      <c r="O46" t="n">
+        <v>6.5</v>
       </c>
       <c r="P46" t="n">
         <v>14.94999999999999</v>
@@ -3783,6 +3940,9 @@
       <c r="S46" t="n">
         <v>17.14999999999998</v>
       </c>
+      <c r="Y46" s="5" t="n"/>
+      <c r="AD46" s="5" t="n"/>
+      <c r="AI46" s="5" t="n"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -3829,8 +3989,8 @@
       <c r="N47" s="2" t="n">
         <v>18425</v>
       </c>
-      <c r="O47" t="n">
-        <v>5.549999999999955</v>
+      <c r="O47" s="5" t="n">
+        <v>-5.549999999999955</v>
       </c>
       <c r="P47" t="n">
         <v>2</v>
@@ -3844,6 +4004,11 @@
       <c r="S47" t="n">
         <v>13.59999999999997</v>
       </c>
+      <c r="T47" s="5" t="n"/>
+      <c r="W47" s="4" t="n"/>
+      <c r="AB47" s="4" t="n"/>
+      <c r="AG47" s="4" t="n"/>
+      <c r="AL47" s="4" t="n"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -3890,8 +4055,8 @@
       <c r="N48" s="2" t="n">
         <v>21474</v>
       </c>
-      <c r="O48" s="5" t="n">
-        <v>-1</v>
+      <c r="O48" t="n">
+        <v>1</v>
       </c>
       <c r="P48" t="n">
         <v>6.599999999999966</v>
@@ -3905,6 +4070,9 @@
       <c r="S48" t="n">
         <v>11.69999999999999</v>
       </c>
+      <c r="Y48" s="5" t="n"/>
+      <c r="AD48" s="5" t="n"/>
+      <c r="AI48" s="5" t="n"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -3951,8 +4119,8 @@
       <c r="N49" s="2" t="n">
         <v>18779</v>
       </c>
-      <c r="O49" t="n">
-        <v>11.10000000000002</v>
+      <c r="O49" s="5" t="n">
+        <v>-11.10000000000002</v>
       </c>
       <c r="P49" t="n">
         <v>4</v>
@@ -3966,6 +4134,11 @@
       <c r="S49" t="n">
         <v>20.39999999999998</v>
       </c>
+      <c r="T49" s="5" t="n"/>
+      <c r="W49" s="4" t="n"/>
+      <c r="AB49" s="4" t="n"/>
+      <c r="AG49" s="4" t="n"/>
+      <c r="AL49" s="4" t="n"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -4012,8 +4185,8 @@
       <c r="N50" s="2" t="n">
         <v>10617</v>
       </c>
-      <c r="O50" t="n">
-        <v>4.800000000000011</v>
+      <c r="O50" s="5" t="n">
+        <v>-4.800000000000011</v>
       </c>
       <c r="P50" t="n">
         <v>0.1499999999999773</v>
@@ -4027,6 +4200,11 @@
       <c r="S50" t="n">
         <v>7.799999999999955</v>
       </c>
+      <c r="T50" s="5" t="n"/>
+      <c r="W50" s="4" t="n"/>
+      <c r="AB50" s="4" t="n"/>
+      <c r="AG50" s="4" t="n"/>
+      <c r="AL50" s="4" t="n"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -4073,8 +4251,8 @@
       <c r="N51" s="2" t="n">
         <v>22503</v>
       </c>
-      <c r="O51" s="5" t="n">
-        <v>-12</v>
+      <c r="O51" t="n">
+        <v>12</v>
       </c>
       <c r="P51" t="n">
         <v>16.30000000000001</v>
@@ -4088,6 +4266,9 @@
       <c r="S51" t="n">
         <v>20.09999999999997</v>
       </c>
+      <c r="Y51" s="5" t="n"/>
+      <c r="AD51" s="5" t="n"/>
+      <c r="AI51" s="5" t="n"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -4134,8 +4315,8 @@
       <c r="N52" s="2" t="n">
         <v>31243</v>
       </c>
-      <c r="O52" s="5" t="n">
-        <v>-9.350000000000023</v>
+      <c r="O52" t="n">
+        <v>9.350000000000023</v>
       </c>
       <c r="P52" t="n">
         <v>15</v>
@@ -4149,6 +4330,9 @@
       <c r="S52" t="n">
         <v>20.64999999999998</v>
       </c>
+      <c r="Y52" s="5" t="n"/>
+      <c r="AD52" s="5" t="n"/>
+      <c r="AI52" s="5" t="n"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -4195,8 +4379,8 @@
       <c r="N53" s="2" t="n">
         <v>35199</v>
       </c>
-      <c r="O53" t="n">
-        <v>26</v>
+      <c r="O53" s="5" t="n">
+        <v>-26</v>
       </c>
       <c r="P53" t="n">
         <v>3.75</v>
@@ -4210,6 +4394,11 @@
       <c r="S53" t="n">
         <v>31.35000000000002</v>
       </c>
+      <c r="T53" s="5" t="n"/>
+      <c r="W53" s="4" t="n"/>
+      <c r="AB53" s="4" t="n"/>
+      <c r="AG53" s="4" t="n"/>
+      <c r="AL53" s="4" t="n"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -4256,8 +4445,8 @@
       <c r="N54" s="2" t="n">
         <v>42940</v>
       </c>
-      <c r="O54" t="n">
-        <v>1.349999999999966</v>
+      <c r="O54" s="5" t="n">
+        <v>-1.349999999999966</v>
       </c>
       <c r="P54" t="n">
         <v>9.600000000000023</v>
@@ -4271,6 +4460,7 @@
       <c r="S54" t="n">
         <v>12.94999999999999</v>
       </c>
+      <c r="T54" s="5" t="n"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -4317,8 +4507,8 @@
       <c r="N55" s="2" t="n">
         <v>3243</v>
       </c>
-      <c r="O55" s="5" t="n">
-        <v>-0.3999999999999773</v>
+      <c r="O55" t="n">
+        <v>0.3999999999999773</v>
       </c>
       <c r="P55" t="n">
         <v>0.3999999999999773</v>
@@ -4332,6 +4522,9 @@
       <c r="S55" t="n">
         <v>5.099999999999966</v>
       </c>
+      <c r="Y55" s="5" t="n"/>
+      <c r="AD55" s="5" t="n"/>
+      <c r="AI55" s="5" t="n"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -4378,8 +4571,8 @@
       <c r="N56" s="2" t="n">
         <v>28424</v>
       </c>
-      <c r="O56" t="n">
-        <v>33.44999999999999</v>
+      <c r="O56" s="5" t="n">
+        <v>-33.44999999999999</v>
       </c>
       <c r="P56" t="n">
         <v>0</v>
@@ -4393,6 +4586,11 @@
       <c r="S56" t="n">
         <v>36.10000000000002</v>
       </c>
+      <c r="T56" s="5" t="n"/>
+      <c r="W56" s="4" t="n"/>
+      <c r="AB56" s="4" t="n"/>
+      <c r="AG56" s="4" t="n"/>
+      <c r="AL56" s="4" t="n"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -4439,8 +4637,8 @@
       <c r="N57" s="2" t="n">
         <v>15164</v>
       </c>
-      <c r="O57" t="n">
-        <v>6</v>
+      <c r="O57" s="5" t="n">
+        <v>-6</v>
       </c>
       <c r="P57" t="n">
         <v>4.849999999999966</v>
@@ -4454,6 +4652,11 @@
       <c r="S57" t="n">
         <v>16.69999999999999</v>
       </c>
+      <c r="T57" s="5" t="n"/>
+      <c r="W57" s="4" t="n"/>
+      <c r="AB57" s="4" t="n"/>
+      <c r="AG57" s="4" t="n"/>
+      <c r="AL57" s="4" t="n"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -4500,8 +4703,8 @@
       <c r="N58" s="2" t="n">
         <v>23598</v>
       </c>
-      <c r="O58" t="n">
-        <v>4.700000000000045</v>
+      <c r="O58" s="5" t="n">
+        <v>-4.700000000000045</v>
       </c>
       <c r="P58" t="n">
         <v>16.04999999999995</v>
@@ -4515,6 +4718,11 @@
       <c r="S58" t="n">
         <v>25.14999999999998</v>
       </c>
+      <c r="T58" s="5" t="n"/>
+      <c r="W58" s="4" t="n"/>
+      <c r="AB58" s="4" t="n"/>
+      <c r="AG58" s="4" t="n"/>
+      <c r="AL58" s="4" t="n"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -4561,8 +4769,8 @@
       <c r="N59" s="2" t="n">
         <v>41411</v>
       </c>
-      <c r="O59" t="n">
-        <v>4.849999999999966</v>
+      <c r="O59" s="5" t="n">
+        <v>-4.849999999999966</v>
       </c>
       <c r="P59" t="n">
         <v>10.40000000000003</v>
@@ -4576,6 +4784,7 @@
       <c r="S59" t="n">
         <v>36.85000000000002</v>
       </c>
+      <c r="T59" s="5" t="n"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -4622,8 +4831,8 @@
       <c r="N60" s="2" t="n">
         <v>8995</v>
       </c>
-      <c r="O60" s="5" t="n">
-        <v>-19.19999999999999</v>
+      <c r="O60" t="n">
+        <v>19.19999999999999</v>
       </c>
       <c r="P60" t="n">
         <v>19.19999999999999</v>
@@ -4637,6 +4846,9 @@
       <c r="S60" t="n">
         <v>19.19999999999999</v>
       </c>
+      <c r="Y60" s="5" t="n"/>
+      <c r="AD60" s="5" t="n"/>
+      <c r="AI60" s="5" t="n"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -4683,8 +4895,8 @@
       <c r="N61" s="2" t="n">
         <v>27525</v>
       </c>
-      <c r="O61" t="n">
-        <v>10.94999999999999</v>
+      <c r="O61" s="5" t="n">
+        <v>-10.94999999999999</v>
       </c>
       <c r="P61" t="n">
         <v>0</v>
@@ -4698,6 +4910,11 @@
       <c r="S61" t="n">
         <v>24</v>
       </c>
+      <c r="T61" s="5" t="n"/>
+      <c r="W61" s="4" t="n"/>
+      <c r="AB61" s="4" t="n"/>
+      <c r="AG61" s="4" t="n"/>
+      <c r="AL61" s="4" t="n"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -4744,8 +4961,8 @@
       <c r="N62" s="2" t="n">
         <v>29276</v>
       </c>
-      <c r="O62" s="5" t="n">
-        <v>-2.399999999999977</v>
+      <c r="O62" t="n">
+        <v>2.399999999999977</v>
       </c>
       <c r="P62" t="n">
         <v>2.649999999999977</v>
@@ -4759,6 +4976,9 @@
       <c r="S62" t="n">
         <v>16.54999999999995</v>
       </c>
+      <c r="Y62" s="5" t="n"/>
+      <c r="AD62" s="5" t="n"/>
+      <c r="AI62" s="5" t="n"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -4805,8 +5025,8 @@
       <c r="N63" s="2" t="n">
         <v>3601</v>
       </c>
-      <c r="O63" s="5" t="n">
-        <v>-13.25</v>
+      <c r="O63" t="n">
+        <v>13.25</v>
       </c>
       <c r="P63" t="n">
         <v>13.25</v>
@@ -4820,6 +5040,9 @@
       <c r="S63" t="n">
         <v>13.25</v>
       </c>
+      <c r="Y63" s="5" t="n"/>
+      <c r="AD63" s="5" t="n"/>
+      <c r="AI63" s="5" t="n"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -4866,8 +5089,8 @@
       <c r="N64" s="2" t="n">
         <v>23960</v>
       </c>
-      <c r="O64" s="5" t="n">
-        <v>-6.850000000000023</v>
+      <c r="O64" t="n">
+        <v>6.850000000000023</v>
       </c>
       <c r="P64" t="n">
         <v>19.75</v>
@@ -4881,6 +5104,9 @@
       <c r="S64" t="n">
         <v>24.5</v>
       </c>
+      <c r="Y64" s="5" t="n"/>
+      <c r="AD64" s="5" t="n"/>
+      <c r="AI64" s="5" t="n"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -4988,8 +5214,8 @@
       <c r="N66" s="2" t="n">
         <v>11582</v>
       </c>
-      <c r="O66" s="5" t="n">
-        <v>-5.600000000000023</v>
+      <c r="O66" t="n">
+        <v>5.600000000000023</v>
       </c>
       <c r="P66" t="n">
         <v>5.600000000000023</v>
@@ -5003,6 +5229,9 @@
       <c r="S66" t="n">
         <v>14.5</v>
       </c>
+      <c r="Y66" s="5" t="n"/>
+      <c r="AD66" s="5" t="n"/>
+      <c r="AI66" s="5" t="n"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -5049,8 +5278,8 @@
       <c r="N67" s="2" t="n">
         <v>12665</v>
       </c>
-      <c r="O67" t="n">
-        <v>2.150000000000034</v>
+      <c r="O67" s="5" t="n">
+        <v>-2.150000000000034</v>
       </c>
       <c r="P67" t="n">
         <v>3.899999999999977</v>
@@ -5064,6 +5293,11 @@
       <c r="S67" t="n">
         <v>14.5</v>
       </c>
+      <c r="T67" s="5" t="n"/>
+      <c r="W67" s="4" t="n"/>
+      <c r="AB67" s="4" t="n"/>
+      <c r="AG67" s="4" t="n"/>
+      <c r="AL67" s="4" t="n"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -5110,8 +5344,8 @@
       <c r="N68" s="2" t="n">
         <v>9495</v>
       </c>
-      <c r="O68" t="n">
-        <v>7.650000000000034</v>
+      <c r="O68" s="5" t="n">
+        <v>-7.650000000000034</v>
       </c>
       <c r="P68" t="n">
         <v>4.399999999999977</v>
@@ -5125,6 +5359,11 @@
       <c r="S68" t="n">
         <v>19.55000000000001</v>
       </c>
+      <c r="T68" s="5" t="n"/>
+      <c r="W68" s="4" t="n"/>
+      <c r="AB68" s="4" t="n"/>
+      <c r="AG68" s="4" t="n"/>
+      <c r="AL68" s="4" t="n"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -5171,8 +5410,8 @@
       <c r="N69" s="2" t="n">
         <v>9569</v>
       </c>
-      <c r="O69" t="n">
-        <v>0.2999999999999545</v>
+      <c r="O69" s="5" t="n">
+        <v>-0.2999999999999545</v>
       </c>
       <c r="P69" t="n">
         <v>6.350000000000023</v>
@@ -5186,6 +5425,7 @@
       <c r="S69" t="n">
         <v>14.14999999999998</v>
       </c>
+      <c r="T69" s="5" t="n"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -5232,8 +5472,8 @@
       <c r="N70" s="2" t="n">
         <v>27583</v>
       </c>
-      <c r="O70" s="5" t="n">
-        <v>-0.1499999999999773</v>
+      <c r="O70" t="n">
+        <v>0.1499999999999773</v>
       </c>
       <c r="P70" t="n">
         <v>7</v>
@@ -5247,6 +5487,9 @@
       <c r="S70" t="n">
         <v>20.60000000000002</v>
       </c>
+      <c r="Y70" s="5" t="n"/>
+      <c r="AD70" s="5" t="n"/>
+      <c r="AI70" s="5" t="n"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -5354,8 +5597,8 @@
       <c r="N72" s="2" t="n">
         <v>5312</v>
       </c>
-      <c r="O72" s="5" t="n">
-        <v>-14.80000000000001</v>
+      <c r="O72" t="n">
+        <v>14.80000000000001</v>
       </c>
       <c r="P72" t="n">
         <v>14.80000000000001</v>
@@ -5369,6 +5612,9 @@
       <c r="S72" t="n">
         <v>14.80000000000001</v>
       </c>
+      <c r="Y72" s="5" t="n"/>
+      <c r="AD72" s="5" t="n"/>
+      <c r="AI72" s="5" t="n"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -5415,8 +5661,8 @@
       <c r="N73" s="2" t="n">
         <v>5301</v>
       </c>
-      <c r="O73" t="n">
-        <v>1.149999999999977</v>
+      <c r="O73" s="5" t="n">
+        <v>-1.149999999999977</v>
       </c>
       <c r="P73" t="n">
         <v>8.5</v>
@@ -5430,6 +5676,11 @@
       <c r="S73" t="n">
         <v>10.5</v>
       </c>
+      <c r="T73" s="5" t="n"/>
+      <c r="W73" s="4" t="n"/>
+      <c r="AB73" s="4" t="n"/>
+      <c r="AG73" s="4" t="n"/>
+      <c r="AL73" s="4" t="n"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -5476,8 +5727,8 @@
       <c r="N74" s="2" t="n">
         <v>6845</v>
       </c>
-      <c r="O74" t="n">
-        <v>1.949999999999989</v>
+      <c r="O74" s="5" t="n">
+        <v>-1.949999999999989</v>
       </c>
       <c r="P74" t="n">
         <v>7.050000000000011</v>
@@ -5491,6 +5742,7 @@
       <c r="S74" t="n">
         <v>13.65000000000003</v>
       </c>
+      <c r="T74" s="5" t="n"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -5537,8 +5789,8 @@
       <c r="N75" s="2" t="n">
         <v>7668</v>
       </c>
-      <c r="O75" t="n">
-        <v>2.850000000000023</v>
+      <c r="O75" s="5" t="n">
+        <v>-2.850000000000023</v>
       </c>
       <c r="P75" t="n">
         <v>2.449999999999989</v>
@@ -5552,6 +5804,11 @@
       <c r="S75" t="n">
         <v>6.649999999999977</v>
       </c>
+      <c r="T75" s="5" t="n"/>
+      <c r="W75" s="4" t="n"/>
+      <c r="AB75" s="4" t="n"/>
+      <c r="AG75" s="4" t="n"/>
+      <c r="AL75" s="4" t="n"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -5598,8 +5855,8 @@
       <c r="N76" s="2" t="n">
         <v>11850</v>
       </c>
-      <c r="O76" s="5" t="n">
-        <v>-3.850000000000023</v>
+      <c r="O76" t="n">
+        <v>3.850000000000023</v>
       </c>
       <c r="P76" t="n">
         <v>9</v>
@@ -5613,6 +5870,9 @@
       <c r="S76" t="n">
         <v>14.64999999999998</v>
       </c>
+      <c r="Y76" s="5" t="n"/>
+      <c r="AD76" s="5" t="n"/>
+      <c r="AI76" s="5" t="n"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -5659,8 +5919,8 @@
       <c r="N77" s="2" t="n">
         <v>9425</v>
       </c>
-      <c r="O77" s="5" t="n">
-        <v>-9.449999999999989</v>
+      <c r="O77" t="n">
+        <v>9.449999999999989</v>
       </c>
       <c r="P77" t="n">
         <v>9.449999999999989</v>
@@ -5674,6 +5934,9 @@
       <c r="S77" t="n">
         <v>13.39999999999998</v>
       </c>
+      <c r="Y77" s="5" t="n"/>
+      <c r="AD77" s="5" t="n"/>
+      <c r="AI77" s="5" t="n"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -5720,8 +5983,8 @@
       <c r="N78" s="2" t="n">
         <v>5499</v>
       </c>
-      <c r="O78" t="n">
-        <v>3.699999999999989</v>
+      <c r="O78" s="5" t="n">
+        <v>-3.699999999999989</v>
       </c>
       <c r="P78" t="n">
         <v>1.599999999999966</v>
@@ -5735,6 +5998,11 @@
       <c r="S78" t="n">
         <v>7.25</v>
       </c>
+      <c r="T78" s="5" t="n"/>
+      <c r="W78" s="4" t="n"/>
+      <c r="AB78" s="4" t="n"/>
+      <c r="AG78" s="4" t="n"/>
+      <c r="AL78" s="4" t="n"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -5781,8 +6049,8 @@
       <c r="N79" s="2" t="n">
         <v>3468</v>
       </c>
-      <c r="O79" s="5" t="n">
-        <v>-4.899999999999977</v>
+      <c r="O79" t="n">
+        <v>4.899999999999977</v>
       </c>
       <c r="P79" t="n">
         <v>7</v>
@@ -5796,6 +6064,9 @@
       <c r="S79" t="n">
         <v>12.60000000000002</v>
       </c>
+      <c r="Y79" s="5" t="n"/>
+      <c r="AD79" s="5" t="n"/>
+      <c r="AI79" s="5" t="n"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -5842,8 +6113,8 @@
       <c r="N80" s="2" t="n">
         <v>13230</v>
       </c>
-      <c r="O80" t="n">
-        <v>11.39999999999998</v>
+      <c r="O80" s="5" t="n">
+        <v>-11.39999999999998</v>
       </c>
       <c r="P80" t="n">
         <v>3.649999999999977</v>
@@ -5857,6 +6128,11 @@
       <c r="S80" t="n">
         <v>18.5</v>
       </c>
+      <c r="T80" s="5" t="n"/>
+      <c r="W80" s="4" t="n"/>
+      <c r="AB80" s="4" t="n"/>
+      <c r="AG80" s="4" t="n"/>
+      <c r="AL80" s="4" t="n"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -5903,8 +6179,8 @@
       <c r="N81" s="2" t="n">
         <v>9816</v>
       </c>
-      <c r="O81" t="n">
-        <v>0.8999999999999773</v>
+      <c r="O81" s="5" t="n">
+        <v>-0.8999999999999773</v>
       </c>
       <c r="P81" t="n">
         <v>8.449999999999989</v>
@@ -5918,6 +6194,7 @@
       <c r="S81" t="n">
         <v>11.34999999999997</v>
       </c>
+      <c r="T81" s="5" t="n"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -5964,8 +6241,8 @@
       <c r="N82" s="2" t="n">
         <v>11324</v>
       </c>
-      <c r="O82" t="n">
-        <v>14</v>
+      <c r="O82" s="5" t="n">
+        <v>-14</v>
       </c>
       <c r="P82" t="n">
         <v>0.1999999999999886</v>
@@ -5979,6 +6256,11 @@
       <c r="S82" t="n">
         <v>15.84999999999997</v>
       </c>
+      <c r="T82" s="5" t="n"/>
+      <c r="W82" s="4" t="n"/>
+      <c r="AB82" s="4" t="n"/>
+      <c r="AG82" s="4" t="n"/>
+      <c r="AL82" s="4" t="n"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -6025,8 +6307,8 @@
       <c r="N83" s="2" t="n">
         <v>7610</v>
       </c>
-      <c r="O83" s="5" t="n">
-        <v>-14.29999999999995</v>
+      <c r="O83" t="n">
+        <v>14.29999999999995</v>
       </c>
       <c r="P83" t="n">
         <v>14.29999999999995</v>
@@ -6040,6 +6322,9 @@
       <c r="S83" t="n">
         <v>15.89999999999998</v>
       </c>
+      <c r="Y83" s="5" t="n"/>
+      <c r="AD83" s="5" t="n"/>
+      <c r="AI83" s="5" t="n"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
